--- a/31/shoesDB.xlsx
+++ b/31/shoesDB.xlsx
@@ -34,32 +34,20 @@
       <charset val="204"/>
       <family val="2"/>
       <b val="1"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor theme="4"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.7999816888943144"/>
-        <bgColor theme="4" tint="0.7999816888943144"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="7">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -67,147 +55,27 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color theme="4" tint="0.3999755851924192"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="4" tint="0.3999755851924192"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4" tint="0.3999755851924192"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4" tint="0.3999755851924192"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4" tint="0.3999755851924192"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="4" tint="0.3999755851924192"/>
-      </right>
-      <top style="thin">
-        <color theme="4" tint="0.3999755851924192"/>
-      </top>
-      <bottom style="thin">
-        <color theme="4" tint="0.3999755851924192"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="4" tint="0.3999755851924192"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color theme="4" tint="0.3999755851924192"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4" tint="0.3999755851924192"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="4" tint="0.3999755851924192"/>
-      </right>
-      <top style="thin">
-        <color theme="4" tint="0.3999755851924192"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="1" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
-    <dxf>
-      <border>
-        <left/>
-        <right/>
-        <top style="thin">
-          <color theme="4" tint="0.3999755851924192"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color theme="4" tint="0.3999755851924192"/>
-        </top>
-        <bottom style="thin">
-          <color theme="4" tint="0.3999755851924192"/>
-        </bottom>
-      </border>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
-        <name val="Calibri"/>
-        <charset val="204"/>
-        <family val="2"/>
         <b val="1"/>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <condense val="0"/>
-        <color theme="0"/>
-        <extend val="0"/>
-        <sz val="11"/>
-        <vertAlign val="baseline"/>
-        <scheme val="minor"/>
       </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor theme="4"/>
-          <bgColor theme="4"/>
-        </patternFill>
-      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -388,11 +256,11 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="B1:B24" headerRowCount="1" totalsRowShown="0" headerRowDxfId="2" tableBorderDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Таблица1" displayName="Таблица1" ref="B1:B23" headerRowCount="1" totalsRowShown="0" headerRowDxfId="0">
   <tableColumns count="1">
-    <tableColumn id="1" name="тип обуви" dataDxfId="0"/>
+    <tableColumn id="1" name="тип обуви"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -700,10 +568,10 @@
   <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col width="19" bestFit="1" customWidth="1" style="3" min="1" max="1"/>
     <col width="19.7109375" customWidth="1" style="3" min="2" max="2"/>
@@ -712,56 +580,51 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="7" t="inlineStr">
+      <c r="A1" s="4" t="inlineStr">
         <is>
           <t>производитель</t>
         </is>
       </c>
-      <c r="B1" s="16" t="inlineStr">
+      <c r="B1" s="4" t="inlineStr">
         <is>
           <t>тип обуви</t>
         </is>
       </c>
-      <c r="C1" s="8" t="inlineStr">
+      <c r="C1" s="4" t="inlineStr">
         <is>
           <t>вид обуви</t>
         </is>
       </c>
-      <c r="D1" s="9" t="inlineStr">
+      <c r="D1" s="4" t="inlineStr">
         <is>
           <t>цвет</t>
         </is>
       </c>
-      <c r="E1" s="16" t="inlineStr">
+      <c r="E1" s="4" t="inlineStr">
         <is>
           <t>размер</t>
         </is>
       </c>
-      <c r="F1" s="16" t="inlineStr">
+      <c r="F1" s="4" t="inlineStr">
         <is>
           <t>цена</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="13" t="inlineStr">
+      <c r="A2" t="inlineStr">
         <is>
           <t>Скороход</t>
         </is>
       </c>
-      <c r="B2" s="14" t="inlineStr">
+      <c r="B2" t="inlineStr">
         <is>
           <t>женская</t>
         </is>
       </c>
-      <c r="C2" s="14" t="inlineStr">
+      <c r="C2" t="inlineStr">
         <is>
           <t>кроссовки</t>
-        </is>
-      </c>
-      <c r="D2" s="15" t="inlineStr">
-        <is>
-          <t>белый</t>
         </is>
       </c>
       <c r="E2" t="n">
@@ -772,22 +635,22 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="10" t="inlineStr">
+      <c r="A3" t="inlineStr">
         <is>
           <t>Скороход</t>
         </is>
       </c>
-      <c r="B3" s="11" t="inlineStr">
+      <c r="B3" t="inlineStr">
         <is>
           <t>мужская</t>
         </is>
       </c>
-      <c r="C3" s="11" t="inlineStr">
+      <c r="C3" t="inlineStr">
         <is>
           <t>кроссовки</t>
         </is>
       </c>
-      <c r="D3" s="12" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>серый</t>
         </is>
@@ -800,22 +663,22 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="13" t="inlineStr">
+      <c r="A4" t="inlineStr">
         <is>
           <t>Скороход</t>
         </is>
       </c>
-      <c r="B4" s="14" t="inlineStr">
+      <c r="B4" t="inlineStr">
         <is>
           <t>мужская</t>
         </is>
       </c>
-      <c r="C4" s="14" t="inlineStr">
+      <c r="C4" t="inlineStr">
         <is>
           <t>сандали</t>
         </is>
       </c>
-      <c r="D4" s="15" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>коричневый</t>
         </is>
@@ -828,22 +691,22 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="10" t="inlineStr">
+      <c r="A5" t="inlineStr">
         <is>
           <t>Скороход</t>
         </is>
       </c>
-      <c r="B5" s="11" t="inlineStr">
+      <c r="B5" t="inlineStr">
         <is>
           <t>женская</t>
         </is>
       </c>
-      <c r="C5" s="11" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>сапоги</t>
         </is>
       </c>
-      <c r="D5" s="12" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>черный</t>
         </is>
@@ -856,22 +719,22 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="4" t="inlineStr">
+      <c r="A6" t="inlineStr">
         <is>
           <t>Скороход</t>
         </is>
       </c>
-      <c r="B6" s="5" t="inlineStr">
+      <c r="B6" t="inlineStr">
         <is>
           <t>мужская</t>
         </is>
       </c>
-      <c r="C6" s="5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>ботинки</t>
         </is>
       </c>
-      <c r="D6" s="6" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>серый</t>
         </is>
@@ -884,22 +747,22 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="10" t="inlineStr">
+      <c r="A7" t="inlineStr">
         <is>
           <t>Скороход</t>
         </is>
       </c>
-      <c r="B7" s="11" t="inlineStr">
+      <c r="B7" t="inlineStr">
         <is>
           <t>женская</t>
         </is>
       </c>
-      <c r="C7" s="11" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>туфли</t>
         </is>
       </c>
-      <c r="D7" s="12" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>беж</t>
         </is>
@@ -912,22 +775,22 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="13" t="inlineStr">
+      <c r="A8" t="inlineStr">
         <is>
           <t>Скороход</t>
         </is>
       </c>
-      <c r="B8" s="14" t="inlineStr">
+      <c r="B8" t="inlineStr">
         <is>
           <t>женская</t>
         </is>
       </c>
-      <c r="C8" s="14" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>кроссовки</t>
         </is>
       </c>
-      <c r="D8" s="15" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>белый</t>
         </is>
@@ -940,22 +803,22 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="10" t="inlineStr">
+      <c r="A9" t="inlineStr">
         <is>
           <t>Скороход</t>
         </is>
       </c>
-      <c r="B9" s="11" t="inlineStr">
+      <c r="B9" t="inlineStr">
         <is>
           <t>мужская</t>
         </is>
       </c>
-      <c r="C9" s="11" t="inlineStr">
+      <c r="C9" t="inlineStr">
         <is>
           <t>кроссовки</t>
         </is>
       </c>
-      <c r="D9" s="12" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>серый</t>
         </is>
@@ -968,22 +831,22 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="13" t="inlineStr">
+      <c r="A10" t="inlineStr">
         <is>
           <t>Скороход</t>
         </is>
       </c>
-      <c r="B10" s="14" t="inlineStr">
+      <c r="B10" t="inlineStr">
         <is>
           <t>мужская</t>
         </is>
       </c>
-      <c r="C10" s="14" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>сандали</t>
         </is>
       </c>
-      <c r="D10" s="15" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>коричневый</t>
         </is>
@@ -996,22 +859,22 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="10" t="inlineStr">
+      <c r="A11" t="inlineStr">
         <is>
           <t>Гатчинская обувная</t>
         </is>
       </c>
-      <c r="B11" s="11" t="inlineStr">
+      <c r="B11" t="inlineStr">
         <is>
           <t>женская</t>
         </is>
       </c>
-      <c r="C11" s="11" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>сапоги</t>
         </is>
       </c>
-      <c r="D11" s="12" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>черный</t>
         </is>
@@ -1024,22 +887,22 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="4" t="inlineStr">
+      <c r="A12" t="inlineStr">
         <is>
           <t>Гатчинская обувная</t>
         </is>
       </c>
-      <c r="B12" s="5" t="inlineStr">
+      <c r="B12" t="inlineStr">
         <is>
           <t>мужская</t>
         </is>
       </c>
-      <c r="C12" s="5" t="inlineStr">
+      <c r="C12" t="inlineStr">
         <is>
           <t>ботинки</t>
         </is>
       </c>
-      <c r="D12" s="6" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>серый</t>
         </is>
@@ -1052,22 +915,22 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="10" t="inlineStr">
+      <c r="A13" t="inlineStr">
         <is>
           <t>Гатчинская обувная</t>
         </is>
       </c>
-      <c r="B13" s="11" t="inlineStr">
+      <c r="B13" t="inlineStr">
         <is>
           <t>женская</t>
         </is>
       </c>
-      <c r="C13" s="11" t="inlineStr">
+      <c r="C13" t="inlineStr">
         <is>
           <t>туфли</t>
         </is>
       </c>
-      <c r="D13" s="12" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>беж</t>
         </is>
@@ -1080,22 +943,22 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="13" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Гатчинская обувная</t>
         </is>
       </c>
-      <c r="B14" s="14" t="inlineStr">
+      <c r="B14" t="inlineStr">
         <is>
           <t>женская</t>
         </is>
       </c>
-      <c r="C14" s="14" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>кроссовки</t>
         </is>
       </c>
-      <c r="D14" s="15" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>белый</t>
         </is>
@@ -1108,22 +971,22 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="10" t="inlineStr">
+      <c r="A15" t="inlineStr">
         <is>
           <t>Гатчинская обувная</t>
         </is>
       </c>
-      <c r="B15" s="11" t="inlineStr">
+      <c r="B15" t="inlineStr">
         <is>
           <t>мужская</t>
         </is>
       </c>
-      <c r="C15" s="11" t="inlineStr">
+      <c r="C15" t="inlineStr">
         <is>
           <t>кроссовки</t>
         </is>
       </c>
-      <c r="D15" s="12" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>серый</t>
         </is>
@@ -1136,22 +999,22 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="13" t="inlineStr">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Гатчинская обувная</t>
         </is>
       </c>
-      <c r="B16" s="14" t="inlineStr">
+      <c r="B16" t="inlineStr">
         <is>
           <t>мужская</t>
         </is>
       </c>
-      <c r="C16" s="14" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>сандали</t>
         </is>
       </c>
-      <c r="D16" s="15" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>коричневый</t>
         </is>
@@ -1164,22 +1027,22 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="10" t="inlineStr">
+      <c r="A17" t="inlineStr">
         <is>
           <t>Гатчинская обувная</t>
         </is>
       </c>
-      <c r="B17" s="11" t="inlineStr">
+      <c r="B17" t="inlineStr">
         <is>
           <t>женская</t>
         </is>
       </c>
-      <c r="C17" s="11" t="inlineStr">
+      <c r="C17" t="inlineStr">
         <is>
           <t>сапоги</t>
         </is>
       </c>
-      <c r="D17" s="12" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>черный</t>
         </is>
@@ -1192,22 +1055,22 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="4" t="inlineStr">
+      <c r="A18" t="inlineStr">
         <is>
           <t>Гатчинская обувная</t>
         </is>
       </c>
-      <c r="B18" s="5" t="inlineStr">
+      <c r="B18" t="inlineStr">
         <is>
           <t>мужская</t>
         </is>
       </c>
-      <c r="C18" s="5" t="inlineStr">
+      <c r="C18" t="inlineStr">
         <is>
           <t>ботинки</t>
         </is>
       </c>
-      <c r="D18" s="6" t="inlineStr">
+      <c r="D18" t="inlineStr">
         <is>
           <t>серый</t>
         </is>
@@ -1220,22 +1083,22 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="10" t="inlineStr">
+      <c r="A19" t="inlineStr">
         <is>
           <t>Гатчинская обувная</t>
         </is>
       </c>
-      <c r="B19" s="11" t="inlineStr">
+      <c r="B19" t="inlineStr">
         <is>
           <t>женская</t>
         </is>
       </c>
-      <c r="C19" s="11" t="inlineStr">
+      <c r="C19" t="inlineStr">
         <is>
           <t>туфли</t>
         </is>
       </c>
-      <c r="D19" s="12" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>беж</t>
         </is>
@@ -1248,22 +1111,22 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="13" t="inlineStr">
+      <c r="A20" t="inlineStr">
         <is>
           <t>Гатчинская обувная</t>
         </is>
       </c>
-      <c r="B20" s="14" t="inlineStr">
+      <c r="B20" t="inlineStr">
         <is>
           <t>женская</t>
         </is>
       </c>
-      <c r="C20" s="14" t="inlineStr">
+      <c r="C20" t="inlineStr">
         <is>
           <t>кроссовки</t>
         </is>
       </c>
-      <c r="D20" s="15" t="inlineStr">
+      <c r="D20" t="inlineStr">
         <is>
           <t>белый</t>
         </is>
@@ -1276,50 +1139,50 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="10" t="inlineStr">
-        <is>
-          <t>Гатчинская обувная</t>
-        </is>
-      </c>
-      <c r="B21" s="11" t="inlineStr">
-        <is>
-          <t>мужская</t>
-        </is>
-      </c>
-      <c r="C21" s="11" t="inlineStr">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Фаб3</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>женская</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>тапки</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>синий</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>39</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Nike</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>женская</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
         <is>
           <t>кроссовки</t>
         </is>
       </c>
-      <c r="D21" s="12" t="inlineStr">
-        <is>
-          <t>серый</t>
-        </is>
-      </c>
-      <c r="E21" t="n">
-        <v>44</v>
-      </c>
-      <c r="F21" t="n">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="4" t="inlineStr">
-        <is>
-          <t>Nike</t>
-        </is>
-      </c>
-      <c r="B22" s="14" t="inlineStr">
-        <is>
-          <t>женская</t>
-        </is>
-      </c>
-      <c r="C22" s="5" t="inlineStr">
-        <is>
-          <t>кроссовки</t>
-        </is>
-      </c>
-      <c r="D22" s="6" t="inlineStr">
+      <c r="D22" t="inlineStr">
         <is>
           <t>черный</t>
         </is>
@@ -1334,7 +1197,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Фабрика 2</t>
+          <t>Puma</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -1344,19 +1207,19 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>резиновые сапоги</t>
+          <t>кроссовки</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>зеленвй</t>
+          <t>беж</t>
         </is>
       </c>
       <c r="E23" t="n">
         <v>39</v>
       </c>
       <c r="F23" t="n">
-        <v>1800</v>
+        <v>5800</v>
       </c>
     </row>
   </sheetData>
@@ -1379,7 +1242,7 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col width="17.28515625" bestFit="1" customWidth="1" style="3" min="1" max="1"/>
     <col width="34.7109375" bestFit="1" customWidth="1" style="3" min="2" max="2"/>
